--- a/Prueba de escritorio-semana4.xlsx
+++ b/Prueba de escritorio-semana4.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\OneDrive\Documentos\GitHub\OperacionesBasicasPesenit\Prueba-de-Escritorio-TareaSemana4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79FD9CB5-7F3D-4ACE-9EC0-93692EB056DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B777E5F-A197-464A-81B1-FF3D4949F848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{99F660D9-3577-4885-A77F-F5ACFC355053}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{99F660D9-3577-4885-A77F-F5ACFC355053}"/>
   </bookViews>
   <sheets>
     <sheet name="Prueba de escritorio Ejercicio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Prueba de escritorio Ejercicio2" sheetId="2" r:id="rId2"/>
+    <sheet name="Prueba de escritorio Ejercicio3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="68">
   <si>
     <t>Proceso/SubProcesoLinea(inst)</t>
   </si>
@@ -120,6 +122,126 @@
   </si>
   <si>
     <t>1:EJERCICIO1PRUEBADEESCRITORIO18(1)</t>
+  </si>
+  <si>
+    <t>PuntosTotales</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>1:EJERCICIO21(1)</t>
+  </si>
+  <si>
+    <t>&lt;&lt;Variable no inicializada (PUNTOSTOTALES).&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;Variable no inicializada (T1).&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;Variable no inicializada (T2).&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;Variable no inicializada (T3).&gt;&gt;</t>
+  </si>
+  <si>
+    <t>1:EJERCICIO22(1)</t>
+  </si>
+  <si>
+    <t>1:EJERCICIO25(1)</t>
+  </si>
+  <si>
+    <t>1:EJERCICIO26(1)</t>
+  </si>
+  <si>
+    <t>1:EJERCICIO27(1)</t>
+  </si>
+  <si>
+    <t>1:EJERCICIO29(1)</t>
+  </si>
+  <si>
+    <t>1:EJERCICIO210(1)</t>
+  </si>
+  <si>
+    <t>1:EJERCICIO211(1)</t>
+  </si>
+  <si>
+    <t>CantBolsasParaIgualarSaco</t>
+  </si>
+  <si>
+    <t>CantidadBolsas</t>
+  </si>
+  <si>
+    <t>CostoBolsas</t>
+  </si>
+  <si>
+    <t>DiferenciaCosto</t>
+  </si>
+  <si>
+    <t>PrecioBolsa</t>
+  </si>
+  <si>
+    <t>PrecioSaco</t>
+  </si>
+  <si>
+    <t>1:EJERCICIO31(1)</t>
+  </si>
+  <si>
+    <t>&lt;&lt;Variable no inicializada (CANTBOLSASPARAIGUALARSACO).&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;Variable no inicializada (CANTIDADBOLSAS).&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;Variable no inicializada (COSTOBOLSAS).&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;Variable no inicializada (DIFERENCIACOSTO).&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;Variable no inicializada (PRECIOBOLSA).&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;Variable no inicializada (PRECIOSACO).&gt;&gt;</t>
+  </si>
+  <si>
+    <t>1:EJERCICIO33(1)</t>
+  </si>
+  <si>
+    <t>1:EJERCICIO34(1)</t>
+  </si>
+  <si>
+    <t>1:EJERCICIO36(1)</t>
+  </si>
+  <si>
+    <t>1:EJERCICIO37(1)</t>
+  </si>
+  <si>
+    <t>1:EJERCICIO39(1)</t>
+  </si>
+  <si>
+    <t>1:EJERCICIO311(1)</t>
+  </si>
+  <si>
+    <t>1:EJERCICIO313(1)</t>
+  </si>
+  <si>
+    <t>1:EJERCICIO314(1)</t>
+  </si>
+  <si>
+    <t>1:EJERCICIO316(1)</t>
+  </si>
+  <si>
+    <t>1:EJERCICIO318(1)</t>
+  </si>
+  <si>
+    <t>1:EJERCICIO320(1)</t>
   </si>
 </sst>
 </file>
@@ -493,7 +615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA26DB63-CA41-4E64-921F-676F238E0354}">
   <dimension ref="B3:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -872,4 +994,500 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1265BCE-D1B8-4535-A35A-892CBF17EDAA}">
+  <dimension ref="B4:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="30.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <v>50</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10">
+        <v>50</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+      <c r="F10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11">
+        <v>150</v>
+      </c>
+      <c r="D11">
+        <v>50</v>
+      </c>
+      <c r="E11">
+        <v>50</v>
+      </c>
+      <c r="F11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12">
+        <v>150</v>
+      </c>
+      <c r="D12">
+        <v>50</v>
+      </c>
+      <c r="E12">
+        <v>50</v>
+      </c>
+      <c r="F12">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B8C2CA3-1BD8-46FC-B8C5-BB2FF99E85D0}">
+  <dimension ref="B4:H16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10">
+        <v>22</v>
+      </c>
+      <c r="H10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11">
+        <v>3.6363636364</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11">
+        <v>22</v>
+      </c>
+      <c r="H11">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12">
+        <v>3.6363636364</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12">
+        <v>22</v>
+      </c>
+      <c r="H12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13">
+        <v>3.6363636364</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13">
+        <v>22</v>
+      </c>
+      <c r="H13">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14">
+        <v>3.6363636364</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>264</v>
+      </c>
+      <c r="F14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14">
+        <v>22</v>
+      </c>
+      <c r="H14">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15">
+        <v>3.6363636364</v>
+      </c>
+      <c r="D15">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>264</v>
+      </c>
+      <c r="F15">
+        <v>184</v>
+      </c>
+      <c r="G15">
+        <v>22</v>
+      </c>
+      <c r="H15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16">
+        <v>3.6363636364</v>
+      </c>
+      <c r="D16">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>264</v>
+      </c>
+      <c r="F16">
+        <v>184</v>
+      </c>
+      <c r="G16">
+        <v>22</v>
+      </c>
+      <c r="H16">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>